--- a/biology/Botanique/Jules_Alexandre_Daveau/Jules_Alexandre_Daveau.xlsx
+++ b/biology/Botanique/Jules_Alexandre_Daveau/Jules_Alexandre_Daveau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Alexandre Daveau (29 février 1852, Argenteuil – 24 août 1929) est un botaniste français connu pour ses recherches sur la flore portugaise. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolescent, il commence à travailler comme apprenti jardinier au Muséum national d'histoire naturelle de Paris. En 1875, il est envoyé en expédition botanique en Cyrénaïque. Il y recueille des spécimens pour le botaniste Julio Augusto Henriques[1] sur l'Archipel des Berlengas, au Portugal[2]. 
-De 1876 à 1893, il est jardinier en chef des jardins botaniques de Lisbonne. Par la suite, il est conservateur de l'herbier et du jardin botanique de Montpellier[3],[4],[5]. 
-Les plantes avec l'épithète spécifique daveauanus sont nommées d'après Daveau, un exemple étant : Erigeron daveauanus[6],[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolescent, il commence à travailler comme apprenti jardinier au Muséum national d'histoire naturelle de Paris. En 1875, il est envoyé en expédition botanique en Cyrénaïque. Il y recueille des spécimens pour le botaniste Julio Augusto Henriques sur l'Archipel des Berlengas, au Portugal. 
+De 1876 à 1893, il est jardinier en chef des jardins botaniques de Lisbonne. Par la suite, il est conservateur de l'herbier et du jardin botanique de Montpellier. 
+Les plantes avec l'épithète spécifique daveauanus sont nommées d'après Daveau, un exemple étant : Erigeron daveauanus,. 
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aperçu sur la végétation de l'Alemtejo et de l'Algarve, 1882
 Euphorbiacées du Portugal, 1885
-Cistinées du Portugal[8], 1886
+Cistinées du Portugal, 1886
 Plumbaginées du Portugal, 1889
-Cypéracées du Portugal, 1892[9]</t>
+Cypéracées du Portugal, 1892</t>
         </is>
       </c>
     </row>
